--- a/Hardware/MidiSwitchPCB/PartList.xlsx
+++ b/Hardware/MidiSwitchPCB/PartList.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="149">
   <si>
     <t>Partl</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.mouser.de/ProductDetail/Broadcom-Avago/6N138-500E?qs=sGAEpiMZZMtd3yBnp8bAgMhsn5Iee23BCIxIH5VeXTY%3D </t>
+  </si>
+  <si>
+    <t>Vorhanden</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Taiyo-Yuden/NRS8030T4R7MJGJ?qs=sGAEpiMZZMsg%252By3WlYCkU5iuzh4MJmq0OBV6vXuK5mk%3D</t>
+  </si>
+  <si>
+    <t>963-NRS8030T4R7MJGJ</t>
   </si>
 </sst>
 </file>
@@ -831,7 +840,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:XFD31"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,6 +988,9 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1019,6 +1031,9 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1039,6 +1054,9 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1528,6 +1546,12 @@
       </c>
       <c r="G42">
         <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,6 +2231,7 @@
     <hyperlink ref="I45" r:id="rId1"/>
     <hyperlink ref="I23" r:id="rId2"/>
     <hyperlink ref="I43" r:id="rId3"/>
+    <hyperlink ref="I42" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware/MidiSwitchPCB/PartList.xlsx
+++ b/Hardware/MidiSwitchPCB/PartList.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="153">
   <si>
     <t>Partl</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>963-NRS8030T4R7MJGJ</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Murata-Electronics/GRM31C5C1E104JA01K?qs=%2Fha2pyFaduhBfEIR6jcOaJ56CU6eddb5oLEFH%252BIY%2FeBTD895l24yhA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM31C5C1E104JA1K </t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>C-EUC1206 Zwitschi-Cap</t>
   </si>
 </sst>
 </file>
@@ -839,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1032,10 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1031,8 +1043,11 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,10 +1058,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -1054,8 +1069,11 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">

--- a/Hardware/MidiSwitchPCB/PartList.xlsx
+++ b/Hardware/MidiSwitchPCB/PartList.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="PartList" localSheetId="0">Tabelle1!$A$1:$G$75</definedName>
+    <definedName name="PartList" localSheetId="0">Tabelle1!$A$1:$G$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="155">
   <si>
     <t>Partl</t>
   </si>
@@ -231,21 +231,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>74AHC1G04D</t>
-  </si>
-  <si>
-    <t>BV    74AHC1G04DBV</t>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
-    <t>74xx-little-de</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -484,13 +469,46 @@
   </si>
   <si>
     <t>963-NRS8030T4R7MJGJ</t>
+  </si>
+  <si>
+    <t>74LVC2G04GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT363 </t>
+  </si>
+  <si>
+    <t>Dual inverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-74LVC2G04GW-G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Nexperia/74LVC2G04GW125?qs=sGAEpiMZZMutVWjHE%2FYQwzJv2zzn7Nf7vXc7ejXVeFs%3D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-TPS55160QPWPTQ1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Texas-Instruments/TPS55160QPWPTQ1?qs=sGAEpiMZZMtitjHzVIkrqZzDzZChF5Zs5nhUQjsAHkohxpxBrAytBw%3D%3D </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/ON-Semiconductor-Fairchild/FSV240AF?qs=sGAEpiMZZMtQ8nqTKtFS%2FMv7GkUEUYtzgyCwzhLsRlvdzZpYTSq9fA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512-FSV240AF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">550-22302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Neutrik/NMJ6HCD2?qs=sGAEpiMZZMv0W4pxf2HiV1DLNivKyHkcokDH7EHcPL8%3D </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +524,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -515,7 +539,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -523,14 +547,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,17 +993,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -929,10 +1085,10 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1055,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1099,1141 +1255,1315 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E42" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F42" t="s">
+      <c r="D43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>139</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11">
+        <v>472</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
+        <v>220</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
+        <v>220</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4">
+        <v>220</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>220</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
+        <v>220</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>220</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4">
+        <v>220</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
+        <v>220</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E62" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53">
+      <c r="F62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
         <v>220</v>
       </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6">
+        <v>220</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55">
-        <v>472</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56">
-        <v>220</v>
-      </c>
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57">
-        <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G66" s="11">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58">
-        <v>220</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G67" s="11">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62">
-        <v>220</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63">
-        <v>220</v>
-      </c>
-      <c r="D63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65">
-        <v>220</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D67" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D68" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="E69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" t="s">
-        <v>133</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I45" r:id="rId1"/>
+    <hyperlink ref="I44" r:id="rId1"/>
     <hyperlink ref="I23" r:id="rId2"/>
-    <hyperlink ref="I43" r:id="rId3"/>
-    <hyperlink ref="I42" r:id="rId4"/>
+    <hyperlink ref="I42" r:id="rId3"/>
+    <hyperlink ref="I41" r:id="rId4"/>
+    <hyperlink ref="I32" r:id="rId5"/>
+    <hyperlink ref="I43" r:id="rId6"/>
+    <hyperlink ref="I71" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Hardware/MidiSwitchPCB/PartList.xlsx
+++ b/Hardware/MidiSwitchPCB/PartList.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="176">
   <si>
     <t>Partl</t>
   </si>
@@ -523,6 +523,48 @@
   </si>
   <si>
     <t>153CLV-0605</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Wurth-Elektronik/694108106102?qs=%2Fha2pyFadugaN47eLMR5UgOd76MPOs%2FIKgZ9RNqOvY6kO94qvJZjaQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-694108106102 </t>
+  </si>
+  <si>
+    <t>Vin connector</t>
+  </si>
+  <si>
+    <t>R20-R27</t>
+  </si>
+  <si>
+    <t>71-CRCW060362R0FKEAC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Dale/CRCW060362R0FKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8gqEwtkQnpvTrJear6gySUsw%3D%3D</t>
+  </si>
+  <si>
+    <t>tmk325b7226km-pr</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Taiyo-Yuden/TMK325B7226KM-PR?qs=%2Fha2pyFaduhBxxodwx8e4PRfF1yuEbL5Z3U3sEyq8aEIBsi%252B1ZgfZw%3D%3D</t>
+  </si>
+  <si>
+    <t>C-EUC1206</t>
+  </si>
+  <si>
+    <t>C-EUC0805</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Omron-Electronics/G6L-1F-TR-DC5?qs=sGAEpiMZZMs3UE%252BXNiFaVHZYBcGbFFQb7mPtLZ5sjCs%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6L-1F-TR DC5 </t>
+  </si>
+  <si>
+    <t>cga4j1x7r1e475k125ac</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/TDK/CGA4J1X7R1E475K125AC?qs=%2Fha2pyFadugpP%252BwZPwSjS8pkWtBoGV9RcGfJNVPoIEaDBd%2Fe7asBWGmrsYN5pekB</t>
   </si>
 </sst>
 </file>
@@ -561,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -704,17 +746,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1021,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1153,960 +1208,982 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="27">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="17" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G41" s="23">
+        <v>1</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="23">
+        <v>1</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10">
+        <v>472</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11">
-        <v>472</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="16"/>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2129,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -2152,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="4"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -2175,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="8"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -2198,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="4"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -2221,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="4"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -2244,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -2267,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="4"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2290,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="4"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -2313,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="8"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -2336,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -2359,99 +2436,99 @@
         <v>1</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="11">
-        <v>1</v>
-      </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="16"/>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="11">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="16"/>
+      <c r="G66" s="10">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="11">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="16"/>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="11">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="16"/>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2474,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="14"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
@@ -2497,103 +2574,139 @@
         <v>1</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" s="14">
+        <v>1</v>
+      </c>
+      <c r="H71" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="4">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="8"/>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="4">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="8"/>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="6">
-        <v>1</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="9"/>
+      <c r="G74" s="20">
+        <v>1</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23">
+        <v>61</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2607,9 +2720,11 @@
     <hyperlink ref="I15" r:id="rId8"/>
     <hyperlink ref="I16" r:id="rId9"/>
     <hyperlink ref="I17" r:id="rId10"/>
+    <hyperlink ref="I76" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Hardware/MidiSwitchPCB/PartList.xlsx
+++ b/Hardware/MidiSwitchPCB/PartList.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t>Partl</t>
   </si>
@@ -456,12 +456,6 @@
     <t>SO 8</t>
   </si>
   <si>
-    <t xml:space="preserve">630-6N138-500E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Broadcom-Avago/6N138-500E?qs=sGAEpiMZZMtd3yBnp8bAgMhsn5Iee23BCIxIH5VeXTY%3D </t>
-  </si>
-  <si>
     <t>Vorhanden</t>
   </si>
   <si>
@@ -492,12 +486,6 @@
     <t xml:space="preserve">https://www.mouser.de/ProductDetail/Texas-Instruments/TPS55160QPWPTQ1?qs=sGAEpiMZZMtitjHzVIkrqZzDzZChF5Zs5nhUQjsAHkohxpxBrAytBw%3D%3D </t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/ON-Semiconductor-Fairchild/FSV240AF?qs=sGAEpiMZZMtQ8nqTKtFS%2FMv7GkUEUYtzgyCwzhLsRlvdzZpYTSq9fA%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512-FSV240AF </t>
-  </si>
-  <si>
     <t xml:space="preserve">550-22302 </t>
   </si>
   <si>
@@ -525,9 +513,6 @@
     <t>153CLV-0605</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/Wurth-Elektronik/694108106102?qs=%2Fha2pyFadugaN47eLMR5UgOd76MPOs%2FIKgZ9RNqOvY6kO94qvJZjaQ%3D%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">710-694108106102 </t>
   </si>
   <si>
@@ -546,32 +531,71 @@
     <t>tmk325b7226km-pr</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/Taiyo-Yuden/TMK325B7226KM-PR?qs=%2Fha2pyFaduhBxxodwx8e4PRfF1yuEbL5Z3U3sEyq8aEIBsi%252B1ZgfZw%3D%3D</t>
-  </si>
-  <si>
     <t>C-EUC1206</t>
   </si>
   <si>
     <t>C-EUC0805</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/Omron-Electronics/G6L-1F-TR-DC5?qs=sGAEpiMZZMs3UE%252BXNiFaVHZYBcGbFFQb7mPtLZ5sjCs%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">G6L-1F-TR DC5 </t>
   </si>
   <si>
     <t>cga4j1x7r1e475k125ac</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/TDK/CGA4J1X7R1E475K125AC?qs=%2Fha2pyFadugpP%252BwZPwSjS8pkWtBoGV9RcGfJNVPoIEaDBd%2Fe7asBWGmrsYN5pekB</t>
+    <t xml:space="preserve">https://www.reichelt.de/din-buchse-5-polig-halbrund-printausfuehrung-mabp-5s-p11178.html?&amp;trstct=pol_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Taiyo-Yuden/TMK325B7226KM-PR?qs=%2Fha2pyFaduhBxxodwx8e4PRfF1yuEbL5Z3U3sEyq8aEIBsi%252B1ZgfZw%3D%3D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Omron-Electronics/G6L-1F-TR-DC5?qs=sGAEpiMZZMs3UE%252BXNiFaVHZYBcGbFFQb7mPtLZ5sjCs%3D </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/TDK/CGA4J1X7R1E475K125AC?qs=%2Fha2pyFadugpP%252BwZPwSjS8pkWtBoGV9RcGfJNVPoIEaDBd%2Fe7asBWGmrsYN 5pekB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Wurth-Elektronik/694108106102?qs=%2Fha2pyFadugaN47eLMR5UgOd76MPOs%2FIKgZ9RNqOvY6kO94qvJZjaQ%3D%3D </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Dale/CRCW06031K00FKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8g1B5lDmmPZz5NoSHbyVr1tg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW06031K00FKEAC </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Dale/RCS0603470RFKEA?qs=sGAEpiMZZMvdGkrng054t556eu%2FvOimDiUu8uhcoaOUO9d3INbXSHg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-RCS0603470RFKEA </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Dale/CRCW0603100KFKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8g0jbHocxVIfJCEjxvJ%252BzFNg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-8063ELF?qs=sGAEpiMZZMvdGkrng054t%252BRNGJdg958RZxUu7%2FVDc4c%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CR0603-FX8063ELF </t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Lite-On/6N138S?qs=sGAEpiMZZMtd3yBnp8bAgJVeHfvx%252B1RWUWetLUT%2F1Wo%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-6N138S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.de/ProductDetail/Rectron/FM5817-W?qs=sGAEpiMZZMtQ8nqTKtFS%2FK3IFKOk7gD%252B2Vty5P8wJZs%3D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">583-FM5817 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +617,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +641,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -754,22 +797,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1078,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,165 +1264,165 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="27">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="23">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="I17" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="23" t="s">
+    </row>
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="23">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1389,801 +1444,809 @@
         <v>1</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="25">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="25">
+        <v>1</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="I41" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="40">
+        <v>1</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="17">
-        <v>1</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="23">
-        <v>1</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="14">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="F44" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="29">
+        <v>1</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="25">
+        <v>1</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="25">
+        <v>1</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="25">
+        <v>1</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="24">
+        <v>1</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="I33" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="20">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="23" t="s">
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24">
+        <v>472</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="23">
-        <v>1</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="23">
-        <v>1</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="20">
-        <v>1</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10">
-        <v>472</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10">
-        <v>1</v>
-      </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="12"/>
+      <c r="G53" s="24">
+        <v>1</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2439,73 +2502,81 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="10">
-        <v>1</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="12"/>
+      <c r="G65" s="24">
+        <v>1</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="38" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="10">
-        <v>1</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="12"/>
+      <c r="G66" s="24">
+        <v>1</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="10">
-        <v>1</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="12"/>
+      <c r="G67" s="24">
+        <v>1</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="38" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
@@ -2531,181 +2602,183 @@
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="2">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="11"/>
+      <c r="G69" s="29">
+        <v>1</v>
+      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
+      <c r="G70" s="34">
+        <v>1</v>
+      </c>
+      <c r="H70" s="34"/>
+      <c r="I70" s="35"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="14">
-        <v>1</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>154</v>
+      <c r="G71" s="29">
+        <v>1</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="17">
-        <v>1</v>
-      </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
+      <c r="G72" s="25">
+        <v>1</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="32"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17" t="s">
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="17">
-        <v>1</v>
-      </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
+      <c r="G73" s="25">
+        <v>1</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="32"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="20">
-        <v>1</v>
-      </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
+      <c r="G74" s="34">
+        <v>1</v>
+      </c>
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I75" s="30" t="s">
+      <c r="A75" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24">
+        <v>61</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I76" s="26" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23">
-        <v>61</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2722,9 +2795,16 @@
     <hyperlink ref="I17" r:id="rId10"/>
     <hyperlink ref="I76" r:id="rId11"/>
     <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I69" r:id="rId13"/>
+    <hyperlink ref="I14" r:id="rId14"/>
+    <hyperlink ref="I24" r:id="rId15"/>
+    <hyperlink ref="I33" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I75" r:id="rId18"/>
+    <hyperlink ref="I53" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2732,7 +2812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
